--- a/BackTest/2020-01-25 BackTest DASH.xlsx
+++ b/BackTest/2020-01-25 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2671,6 +2739,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2712,6 +2781,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2755,6 +2825,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2796,6 +2867,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2839,6 +2911,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2880,6 +2953,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2921,6 +2995,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2964,6 +3039,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3007,6 +3083,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,6 +3127,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3093,6 +3171,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3136,6 +3215,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3179,6 +3259,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3222,6 +3303,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3265,6 +3347,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3308,6 +3391,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3351,6 +3435,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3394,6 +3479,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3435,6 +3521,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3476,6 +3563,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3517,6 +3605,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3558,6 +3647,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3599,6 +3689,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3640,6 +3731,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3681,6 +3773,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3722,6 +3815,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3763,6 +3857,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3804,6 +3899,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3845,6 +3941,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3886,6 +3983,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3927,6 +4025,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3968,6 +4067,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4009,6 +4109,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4050,6 +4151,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4091,6 +4193,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4132,6 +4235,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4173,6 +4277,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4214,6 +4319,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4255,6 +4361,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4296,6 +4403,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4337,6 +4445,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4378,6 +4487,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4419,6 +4529,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4460,6 +4571,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4487,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
@@ -4495,11 +4607,14 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>1.048428317008014</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.023172905525847</v>
       </c>
     </row>
     <row r="110">
@@ -4528,20 +4643,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>112300</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4572,17 +4682,12 @@
         <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>112300</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>1.045756901157614</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4618,6 +4723,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4645,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4653,6 +4759,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4688,6 +4795,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4723,6 +4831,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4758,6 +4867,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest DASH.xlsx
+++ b/BackTest/2020-01-25 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-25.70010127</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-30.42620127000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-41.81010127</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-41.81010127</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-41.81010127</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-48.87450127</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-49.47660127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-43.83150127</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,24 +3916,21 @@
         <v>-92.46992307000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
         <v>110100</v>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4278,24 +3955,21 @@
         <v>-92.55982307000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
         <v>109500</v>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4320,24 +3994,21 @@
         <v>-92.52402307000001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>109400</v>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4362,24 +4033,21 @@
         <v>-77.52402307000001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>109500</v>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4404,24 +4072,21 @@
         <v>-73.50302307000001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>109600</v>
       </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4446,24 +4111,21 @@
         <v>-73.60912307000001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>111600</v>
       </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4490,20 +4152,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4530,20 +4189,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4570,20 +4226,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4610,20 +4263,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4650,20 +4300,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4690,20 +4337,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4730,20 +4374,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4770,20 +4411,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4810,20 +4448,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4850,20 +4485,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4890,20 +4522,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4930,20 +4559,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4970,20 +4596,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5010,20 +4633,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5050,20 +4670,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5090,20 +4707,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5130,20 +4744,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5170,20 +4781,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5210,20 +4818,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5250,20 +4855,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5290,20 +4892,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5330,20 +4929,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5370,20 +4966,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5410,20 +5003,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5450,20 +5040,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5490,20 +5077,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5530,20 +5114,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5568,20 +5149,19 @@
         <v>-8.749723070000027</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5606,18 +5186,19 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5642,18 +5223,19 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5678,18 +5260,19 @@
         <v>-17.73392307000002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5714,18 +5297,19 @@
         <v>-17.66392307000002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5750,20 +5334,21 @@
         <v>-16.30722307000002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DASH.xlsx
+++ b/BackTest/2020-01-25 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-25.70010127</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-30.42620127000001</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-48.87450127</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-48.87450127</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-49.38450127</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-49.47660127</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-43.83150127</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-43.83150127</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-43.83150127</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-44.53150127000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-44.53150127000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-45.54010127000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-45.54010127000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-47.55070127</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-47.56300127000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-48.56300127000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-48.77170127000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-50.99850127000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-50.99240127</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-50.99240127</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-54.41050127</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-54.41050127</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-54.51050127000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-54.51050127000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-54.59350127</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-55.30230127</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-55.62810127</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-55.62810127</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-59.52740127</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-59.86530127</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-95.27960127</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-95.27960127</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3850,10 +3850,14 @@
         <v>-88.47822307</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>110200</v>
+      </c>
+      <c r="J105" t="n">
+        <v>110200</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3883,11 +3887,19 @@
         <v>-88.50322307</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>110200</v>
+      </c>
+      <c r="J106" t="n">
+        <v>110200</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,12 +3928,14 @@
         <v>-92.46992307000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>110100</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>110200</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3955,12 +3969,14 @@
         <v>-92.55982307000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>109500</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>110200</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,12 +4010,14 @@
         <v>-92.52402307000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>109400</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>110200</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,12 +4051,14 @@
         <v>-77.52402307000001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>109500</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>110200</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,12 +4092,14 @@
         <v>-73.50302307000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>109600</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>110200</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,12 +4133,14 @@
         <v>-73.60912307000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>111600</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>110200</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,10 +4174,14 @@
         <v>-73.60912307000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>111100</v>
+      </c>
+      <c r="J113" t="n">
+        <v>110200</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,7 +4218,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>110200</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,7 +4257,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>110200</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,7 +4296,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>110200</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4301,7 +4335,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>110200</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,7 +4374,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>110200</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,10 +4410,14 @@
         <v>-65.35272307000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>110300</v>
+      </c>
+      <c r="J119" t="n">
+        <v>110200</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,7 +4454,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>110200</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4449,7 +4493,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>110200</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,7 +4532,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>110200</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4523,7 +4571,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>110200</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,7 +4610,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>110200</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,7 +4649,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>110200</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,7 +4688,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>110200</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4671,7 +4727,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>110200</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,7 +4766,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>110200</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,7 +4805,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>110200</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4782,7 +4844,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>110200</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,7 +4883,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>110200</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,7 +4922,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>110200</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4893,7 +4961,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>110200</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,7 +5000,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>110200</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4967,7 +5039,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>110200</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5004,7 +5078,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>110200</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5041,7 +5117,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>110200</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5078,7 +5156,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>110200</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5115,7 +5195,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>110200</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5149,10 +5231,12 @@
         <v>-8.749723070000027</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>110200</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,10 +5270,12 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>110200</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,10 +5309,12 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>110200</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5260,10 +5348,12 @@
         <v>-17.73392307000002</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>110200</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,10 +5387,12 @@
         <v>-17.66392307000002</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>110200</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,10 +5426,12 @@
         <v>-16.30722307000002</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>110200</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5349,6 +5443,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DASH.xlsx
+++ b/BackTest/2020-01-25 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-25.70010127</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-30.42620127000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-48.87450127</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-48.87450127</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-49.38450127</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-49.47660127</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-43.83150127</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-43.83150127</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-43.83150127</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-44.53150127000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-44.53150127000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-45.54010127000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-45.54010127000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-47.55070127</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-47.56300127000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-48.56300127000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-48.77170127000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-50.99850127000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-50.99240127</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-50.99240127</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-54.41050127</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-54.41050127</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-54.51050127000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-54.51050127000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-54.59350127</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-55.30230127</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-55.62810127</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-55.62810127</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-59.52740127</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-59.86530127</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-95.27960127</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-95.27960127</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3850,14 +3850,10 @@
         <v>-88.47822307</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>110200</v>
-      </c>
-      <c r="J105" t="n">
-        <v>110200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3887,142 +3883,122 @@
         <v>-88.50322307</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>110200</v>
-      </c>
-      <c r="J106" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>109400</v>
+      </c>
+      <c r="C107" t="n">
+        <v>109500</v>
+      </c>
+      <c r="D107" t="n">
+        <v>109500</v>
+      </c>
+      <c r="E107" t="n">
+        <v>109400</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.9667</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-92.46992307000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>109400</v>
+      </c>
+      <c r="C108" t="n">
+        <v>109400</v>
+      </c>
+      <c r="D108" t="n">
+        <v>109400</v>
+      </c>
+      <c r="E108" t="n">
+        <v>109400</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.08989999999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-92.55982307000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>109500</v>
+      </c>
+      <c r="J108" t="n">
+        <v>109500</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>109500</v>
+      </c>
+      <c r="C109" t="n">
+        <v>109500</v>
+      </c>
+      <c r="D109" t="n">
+        <v>109500</v>
+      </c>
+      <c r="E109" t="n">
+        <v>109500</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-92.52402307000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J109" t="n">
+        <v>109500</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>109400</v>
-      </c>
-      <c r="C107" t="n">
-        <v>109500</v>
-      </c>
-      <c r="D107" t="n">
-        <v>109500</v>
-      </c>
-      <c r="E107" t="n">
-        <v>109400</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3.9667</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-92.46992307000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>110100</v>
-      </c>
-      <c r="J107" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>109400</v>
-      </c>
-      <c r="C108" t="n">
-        <v>109400</v>
-      </c>
-      <c r="D108" t="n">
-        <v>109400</v>
-      </c>
-      <c r="E108" t="n">
-        <v>109400</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.08989999999999999</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-92.55982307000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>109500</v>
-      </c>
-      <c r="J108" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>109500</v>
-      </c>
-      <c r="C109" t="n">
-        <v>109500</v>
-      </c>
-      <c r="D109" t="n">
-        <v>109500</v>
-      </c>
-      <c r="E109" t="n">
-        <v>109500</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.0358</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-92.52402307000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>109400</v>
-      </c>
-      <c r="J109" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +4033,11 @@
         <v>109500</v>
       </c>
       <c r="J110" t="n">
-        <v>110200</v>
+        <v>109500</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4098,13 +4074,9 @@
         <v>109600</v>
       </c>
       <c r="J111" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>109600</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4133,17 +4105,15 @@
         <v>-73.60912307000001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>111600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>110200</v>
+        <v>109600</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4174,17 +4144,15 @@
         <v>-73.60912307000001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>111100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>110200</v>
+        <v>109600</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4218,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4257,14 +4219,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4296,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4335,14 +4285,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4374,14 +4318,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4410,19 +4348,11 @@
         <v>-65.35272307000002</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>110300</v>
-      </c>
-      <c r="J119" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4454,14 +4384,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4493,14 +4417,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4532,14 +4450,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4571,14 +4483,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4610,14 +4516,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4649,14 +4549,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4688,14 +4582,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4727,14 +4615,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4766,14 +4648,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4805,14 +4681,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4844,14 +4714,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4883,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4780,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4961,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5000,14 +4846,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5036,17 +4876,11 @@
         <v>-21.95822307000003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5075,17 +4909,11 @@
         <v>-6.667423070000027</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5114,17 +4942,11 @@
         <v>-6.647423070000027</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5153,17 +4975,11 @@
         <v>-4.898423070000026</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +5011,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +5044,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +5110,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5143,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +5176,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5429,20 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>110200</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DASH.xlsx
+++ b/BackTest/2020-01-25 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>-25.70010127</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -4876,7 +4876,7 @@
         <v>-21.95822307000003</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4909,7 +4909,7 @@
         <v>-6.667423070000027</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4942,7 +4942,7 @@
         <v>-6.647423070000027</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4975,7 +4975,7 @@
         <v>-4.898423070000026</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5008,7 +5008,7 @@
         <v>3.110576929999974</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5041,7 +5041,7 @@
         <v>-8.749723070000027</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5074,7 +5074,7 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5107,7 +5107,7 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5140,7 +5140,7 @@
         <v>-17.73392307000002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5173,7 +5173,7 @@
         <v>-17.66392307000002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5206,7 +5206,7 @@
         <v>-16.30722307000002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>

--- a/BackTest/2020-01-25 BackTest DASH.xlsx
+++ b/BackTest/2020-01-25 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1.3194</v>
       </c>
       <c r="G2" t="n">
-        <v>-25.70010127</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4.6</v>
       </c>
       <c r="G3" t="n">
-        <v>-30.30010127000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.0068</v>
       </c>
       <c r="G4" t="n">
-        <v>-30.30010127000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.1261</v>
       </c>
       <c r="G5" t="n">
-        <v>-30.42620127000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11.3839</v>
       </c>
       <c r="G6" t="n">
-        <v>-41.81010127</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8.0008</v>
       </c>
       <c r="G7" t="n">
-        <v>-41.81010127</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>0.0047</v>
       </c>
       <c r="G8" t="n">
-        <v>-41.81010127</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>7.0644</v>
       </c>
       <c r="G9" t="n">
-        <v>-48.87450127</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1.1546</v>
       </c>
       <c r="G10" t="n">
-        <v>-48.87450127</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.51</v>
       </c>
       <c r="G11" t="n">
-        <v>-49.38450127</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>0.0921</v>
       </c>
       <c r="G12" t="n">
-        <v>-49.47660127</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5.6451</v>
       </c>
       <c r="G13" t="n">
-        <v>-43.83150127</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2.632</v>
       </c>
       <c r="G14" t="n">
-        <v>-43.83150127</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>0.2413</v>
       </c>
       <c r="G15" t="n">
-        <v>-43.83150127</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.7</v>
       </c>
       <c r="G16" t="n">
-        <v>-44.53150127000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>0.0086</v>
       </c>
       <c r="G17" t="n">
-        <v>-44.53150127000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1.0086</v>
       </c>
       <c r="G18" t="n">
-        <v>-45.54010127000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>0.0116</v>
       </c>
       <c r="G19" t="n">
-        <v>-45.54010127000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2.0106</v>
       </c>
       <c r="G20" t="n">
-        <v>-47.55070127</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>0.0123</v>
       </c>
       <c r="G21" t="n">
-        <v>-47.56300127000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-48.56300127000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>0.2087</v>
       </c>
       <c r="G23" t="n">
-        <v>-48.77170127000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2.2268</v>
       </c>
       <c r="G24" t="n">
-        <v>-50.99850127000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.0061</v>
       </c>
       <c r="G25" t="n">
-        <v>-50.99240127</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1.3011</v>
       </c>
       <c r="G26" t="n">
-        <v>-50.99240127</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3.4181</v>
       </c>
       <c r="G27" t="n">
-        <v>-54.41050127</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2.8305</v>
       </c>
       <c r="G28" t="n">
-        <v>-54.41050127</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>-54.51050127000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>0.0057</v>
       </c>
       <c r="G30" t="n">
-        <v>-54.51050127000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>0.083</v>
       </c>
       <c r="G31" t="n">
-        <v>-54.59350127</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>0.7088</v>
       </c>
       <c r="G32" t="n">
-        <v>-55.30230127</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>0.3258</v>
       </c>
       <c r="G33" t="n">
-        <v>-55.62810127</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>27.5685</v>
       </c>
       <c r="G34" t="n">
-        <v>-55.62810127</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3.8993</v>
       </c>
       <c r="G35" t="n">
-        <v>-59.52740127</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>0.3379</v>
       </c>
       <c r="G36" t="n">
-        <v>-59.86530127</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>35.4143</v>
       </c>
       <c r="G37" t="n">
-        <v>-95.27960127</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1.7496</v>
       </c>
       <c r="G38" t="n">
-        <v>-95.27960127</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>48.5555</v>
       </c>
       <c r="G39" t="n">
-        <v>-46.72410127</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3.05</v>
       </c>
       <c r="G40" t="n">
-        <v>-49.77410127</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1.9184</v>
       </c>
       <c r="G41" t="n">
-        <v>-51.69250126999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>0.0054</v>
       </c>
       <c r="G42" t="n">
-        <v>-51.68710126999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-51.67830126999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>0.0141218</v>
       </c>
       <c r="G44" t="n">
-        <v>-51.69242306999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>6.603</v>
       </c>
       <c r="G45" t="n">
-        <v>-51.69242306999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>6.5915</v>
       </c>
       <c r="G46" t="n">
-        <v>-45.10092306999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>-45.10092306999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>0.0045</v>
       </c>
       <c r="G48" t="n">
-        <v>-45.10092306999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>4.9955</v>
       </c>
       <c r="G49" t="n">
-        <v>-45.10092306999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>0.03</v>
       </c>
       <c r="G50" t="n">
-        <v>-45.07092306999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2.0867</v>
       </c>
       <c r="G51" t="n">
-        <v>-47.15762306999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>6.0582</v>
       </c>
       <c r="G52" t="n">
-        <v>-53.21582306999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>-52.21582306999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>0.025</v>
       </c>
       <c r="G54" t="n">
-        <v>-52.19082306999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>6.0923</v>
       </c>
       <c r="G55" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>11.9961</v>
       </c>
       <c r="G56" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3.5439</v>
       </c>
       <c r="G57" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2.6765</v>
       </c>
       <c r="G58" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>0.8518</v>
       </c>
       <c r="G59" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>0.438</v>
       </c>
       <c r="G60" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>0.271</v>
       </c>
       <c r="G61" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>0.1304</v>
       </c>
       <c r="G62" t="n">
-        <v>-58.28312306999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1.2367</v>
       </c>
       <c r="G63" t="n">
-        <v>-59.51982306999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>6.5555</v>
       </c>
       <c r="G64" t="n">
-        <v>-59.51982306999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>21</v>
       </c>
       <c r="G65" t="n">
-        <v>-38.51982306999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>0.3451</v>
       </c>
       <c r="G66" t="n">
-        <v>-38.86492307</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1.7913</v>
       </c>
       <c r="G67" t="n">
-        <v>-37.07362307</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>0.0053</v>
       </c>
       <c r="G68" t="n">
-        <v>-37.07362307</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>4.5</v>
       </c>
       <c r="G69" t="n">
-        <v>-32.57362307</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>0.1013</v>
       </c>
       <c r="G70" t="n">
-        <v>-32.47232306999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>0.3677</v>
       </c>
       <c r="G71" t="n">
-        <v>-32.10462307</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>8.6396</v>
       </c>
       <c r="G72" t="n">
-        <v>-40.74422307</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-40.81422307</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>0.008</v>
       </c>
       <c r="G74" t="n">
-        <v>-40.80622306999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>7</v>
       </c>
       <c r="G75" t="n">
-        <v>-47.80622306999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>6</v>
       </c>
       <c r="G76" t="n">
-        <v>-47.80622306999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2.2179</v>
       </c>
       <c r="G77" t="n">
-        <v>-50.02412306999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>4.6147</v>
       </c>
       <c r="G78" t="n">
-        <v>-54.63882306999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1.6345</v>
       </c>
       <c r="G79" t="n">
-        <v>-54.63882306999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>0.008</v>
       </c>
       <c r="G80" t="n">
-        <v>-54.63082306999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>-54.63082306999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>2.1823</v>
       </c>
       <c r="G82" t="n">
-        <v>-56.81312306999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>0.36</v>
       </c>
       <c r="G83" t="n">
-        <v>-57.17312306999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>-56.17312306999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>0.331</v>
       </c>
       <c r="G85" t="n">
-        <v>-56.50412306999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2.5261</v>
       </c>
       <c r="G86" t="n">
-        <v>-56.50412306999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2.1966</v>
       </c>
       <c r="G87" t="n">
-        <v>-56.50412306999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>4.7655</v>
       </c>
       <c r="G88" t="n">
-        <v>-61.26962306999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>0.2866</v>
       </c>
       <c r="G89" t="n">
-        <v>-61.26962306999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>0.1717</v>
       </c>
       <c r="G90" t="n">
-        <v>-61.26962306999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>4.773</v>
       </c>
       <c r="G91" t="n">
-        <v>-66.04262306999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>-68.04262306999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>0.3963</v>
       </c>
       <c r="G93" t="n">
-        <v>-67.64632306999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1.65</v>
       </c>
       <c r="G94" t="n">
-        <v>-69.29632307</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>11.015</v>
       </c>
       <c r="G95" t="n">
-        <v>-80.31132307</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>0.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>-81.31122307</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>0.0048</v>
       </c>
       <c r="G97" t="n">
-        <v>-81.30642306999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>0.0001</v>
       </c>
       <c r="G98" t="n">
-        <v>-81.30652307</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>0.108</v>
       </c>
       <c r="G99" t="n">
-        <v>-81.41452307</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>2.8243</v>
       </c>
       <c r="G100" t="n">
-        <v>-84.23882307</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>7.3379</v>
       </c>
       <c r="G101" t="n">
-        <v>-91.57672307</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>7.0158</v>
       </c>
       <c r="G102" t="n">
-        <v>-84.56092307</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>3.9173</v>
       </c>
       <c r="G103" t="n">
-        <v>-88.47822307</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>0.3134</v>
       </c>
       <c r="G104" t="n">
-        <v>-88.47822307</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>0.0451</v>
       </c>
       <c r="G105" t="n">
-        <v>-88.47822307</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>0.025</v>
       </c>
       <c r="G106" t="n">
-        <v>-88.50322307</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>3.9667</v>
       </c>
       <c r="G107" t="n">
-        <v>-92.46992307000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,22 +3623,15 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-92.55982307000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>109500</v>
-      </c>
-      <c r="J108" t="n">
-        <v>109500</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3983,104 +3653,95 @@
         <v>0.0358</v>
       </c>
       <c r="G109" t="n">
-        <v>-92.52402307000001</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>109400</v>
       </c>
       <c r="I109" t="n">
         <v>109400</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109600</v>
+      </c>
+      <c r="C110" t="n">
+        <v>109600</v>
+      </c>
+      <c r="D110" t="n">
+        <v>109600</v>
+      </c>
+      <c r="E110" t="n">
+        <v>109600</v>
+      </c>
+      <c r="F110" t="n">
+        <v>15</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
         <v>109500</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="I110" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110600</v>
+      </c>
+      <c r="C111" t="n">
+        <v>111600</v>
+      </c>
+      <c r="D111" t="n">
+        <v>111600</v>
+      </c>
+      <c r="E111" t="n">
+        <v>110600</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4.021</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
         <v>109600</v>
       </c>
-      <c r="C110" t="n">
-        <v>109600</v>
-      </c>
-      <c r="D110" t="n">
-        <v>109600</v>
-      </c>
-      <c r="E110" t="n">
-        <v>109600</v>
-      </c>
-      <c r="F110" t="n">
-        <v>15</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-77.52402307000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>109500</v>
-      </c>
-      <c r="J110" t="n">
-        <v>109500</v>
-      </c>
-      <c r="K110" t="inlineStr">
+      <c r="I111" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>110600</v>
-      </c>
-      <c r="C111" t="n">
-        <v>111600</v>
-      </c>
-      <c r="D111" t="n">
-        <v>111600</v>
-      </c>
-      <c r="E111" t="n">
-        <v>110600</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4.021</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-73.50302307000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>109600</v>
-      </c>
-      <c r="J111" t="n">
-        <v>109600</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4102,24 +3763,23 @@
         <v>0.1061</v>
       </c>
       <c r="G112" t="n">
-        <v>-73.60912307000001</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>109600</v>
-      </c>
-      <c r="K112" t="inlineStr">
+        <v>111600</v>
+      </c>
+      <c r="I112" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4141,24 +3801,23 @@
         <v>0.076</v>
       </c>
       <c r="G113" t="n">
-        <v>-73.60912307000001</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>109600</v>
-      </c>
-      <c r="K113" t="inlineStr">
+        <v>111100</v>
+      </c>
+      <c r="I113" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4180,18 +3839,23 @@
         <v>8.248200000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-65.36092307000001</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>111100</v>
+      </c>
+      <c r="I114" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4213,18 +3877,21 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-65.36992307000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4246,18 +3913,21 @@
         <v>0.025</v>
       </c>
       <c r="G116" t="n">
-        <v>-65.39492307000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4279,18 +3949,21 @@
         <v>0.0078</v>
       </c>
       <c r="G117" t="n">
-        <v>-65.40272307000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4312,18 +3985,21 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>-65.40272307000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4345,18 +4021,21 @@
         <v>0.05</v>
       </c>
       <c r="G119" t="n">
-        <v>-65.35272307000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4378,18 +4057,21 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>-65.36092307000003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4411,18 +4093,21 @@
         <v>2.7292</v>
       </c>
       <c r="G121" t="n">
-        <v>-62.63172307000003</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4444,18 +4129,21 @@
         <v>13.0587</v>
       </c>
       <c r="G122" t="n">
-        <v>-49.57302307000003</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4477,18 +4165,21 @@
         <v>1.4936</v>
       </c>
       <c r="G123" t="n">
-        <v>-51.06662307000003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4510,18 +4201,21 @@
         <v>5.8044</v>
       </c>
       <c r="G124" t="n">
-        <v>-45.26222307000003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4543,18 +4237,21 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>-44.26222307000003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4576,18 +4273,21 @@
         <v>0.0133</v>
       </c>
       <c r="G126" t="n">
-        <v>-44.24892307000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4609,18 +4309,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>-43.24892307000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4642,18 +4345,21 @@
         <v>5.15130991</v>
       </c>
       <c r="G128" t="n">
-        <v>-38.09761316000002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4675,18 +4381,21 @@
         <v>11.3382</v>
       </c>
       <c r="G129" t="n">
-        <v>-49.43581316000002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4708,18 +4417,21 @@
         <v>16.47129009</v>
       </c>
       <c r="G130" t="n">
-        <v>-32.96452307000003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4741,18 +4453,21 @@
         <v>2.2934</v>
       </c>
       <c r="G131" t="n">
-        <v>-30.67112307000003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4774,18 +4489,21 @@
         <v>10.3007</v>
       </c>
       <c r="G132" t="n">
-        <v>-40.97182307000003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4807,18 +4525,21 @@
         <v>0.0481</v>
       </c>
       <c r="G133" t="n">
-        <v>-41.01992307000003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4840,18 +4561,21 @@
         <v>0.2617</v>
       </c>
       <c r="G134" t="n">
-        <v>-40.75822307000003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4873,18 +4597,21 @@
         <v>18.8</v>
       </c>
       <c r="G135" t="n">
-        <v>-21.95822307000003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4906,18 +4633,21 @@
         <v>15.2908</v>
       </c>
       <c r="G136" t="n">
-        <v>-6.667423070000027</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4939,18 +4669,21 @@
         <v>0.02</v>
       </c>
       <c r="G137" t="n">
-        <v>-6.647423070000027</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4972,18 +4705,21 @@
         <v>1.749</v>
       </c>
       <c r="G138" t="n">
-        <v>-4.898423070000026</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5005,18 +4741,21 @@
         <v>8.009</v>
       </c>
       <c r="G139" t="n">
-        <v>3.110576929999974</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5038,18 +4777,21 @@
         <v>11.8603</v>
       </c>
       <c r="G140" t="n">
-        <v>-8.749723070000027</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5071,18 +4813,21 @@
         <v>0.0842</v>
       </c>
       <c r="G141" t="n">
-        <v>-8.833923070000026</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5104,18 +4849,23 @@
         <v>3.4989</v>
       </c>
       <c r="G142" t="n">
-        <v>-8.833923070000026</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>109400</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1.067212065813528</v>
+      </c>
       <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>1.085923217550274</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5137,18 +4887,15 @@
         <v>8.9</v>
       </c>
       <c r="G143" t="n">
-        <v>-17.73392307000002</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5170,18 +4917,15 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-17.66392307000002</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5203,18 +4947,15 @@
         <v>1.3567</v>
       </c>
       <c r="G145" t="n">
-        <v>-16.30722307000002</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
